--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487A046E-2484-4588-94AE-8EE1D7BBDC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76FDEB-EE7B-4CD1-B0C3-30B45F7D94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="975" windowWidth="13785" windowHeight="11295" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>Num</t>
   </si>
@@ -118,6 +118,22 @@
   </si>
   <si>
     <t>ProductObjAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructSec</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCnt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대소지개수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1052,22 +1068,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519EE6C-6642-4ECA-95F8-8DE2EF3A4E40}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1087,22 +1104,28 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1122,22 +1145,28 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1148,16 +1177,19 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110001</v>
       </c>
@@ -1177,22 +1209,28 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110002</v>
       </c>
@@ -1212,22 +1250,28 @@
         <v>3</v>
       </c>
       <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>130001</v>
       </c>
@@ -1249,20 +1293,26 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6">
+        <v>10000</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>180001</v>
       </c>
@@ -1284,20 +1334,26 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7">
+        <v>10000</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>180002</v>
       </c>
@@ -1319,20 +1375,26 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8">
+        <v>10000</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>17</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>190001</v>
       </c>
@@ -1354,16 +1416,22 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9">
+        <v>10000</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B76FDEB-EE7B-4CD1-B0C3-30B45F7D94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A6DD8-159E-4CA1-9F66-78E630A698BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>Num</t>
   </si>
@@ -94,9 +94,6 @@
     <t>나무 조각</t>
   </si>
   <si>
-    <t>TRASH</t>
-  </si>
-  <si>
     <t>enum:EObjType</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -134,6 +131,38 @@
   </si>
   <si>
     <t>최대소지개수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECORATION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_CASH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecoPoint</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경점수</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1068,23 +1097,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519EE6C-6642-4ECA-95F8-8DE2EF3A4E40}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" customWidth="1"/>
+    <col min="15" max="16" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1104,28 +1134,40 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>7</v>
       </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1133,10 +1175,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1145,28 +1187,40 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
       <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
         <v>10</v>
       </c>
+      <c r="R2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1177,19 +1231,22 @@
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>110001</v>
       </c>
@@ -1212,25 +1269,37 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4000</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
         <v>17</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>10</v>
       </c>
+      <c r="R4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>110002</v>
       </c>
@@ -1255,23 +1324,35 @@
       <c r="H5">
         <v>5</v>
       </c>
-      <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>10</v>
       </c>
+      <c r="Q5">
+        <v>10</v>
+      </c>
+      <c r="R5">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>130001</v>
       </c>
@@ -1296,23 +1377,35 @@
       <c r="H6">
         <v>10000</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>2000</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>180001</v>
       </c>
@@ -1320,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>17</v>
@@ -1337,23 +1430,35 @@
       <c r="H7">
         <v>10000</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>180002</v>
       </c>
@@ -1378,23 +1483,35 @@
       <c r="H8">
         <v>10000</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>190001</v>
       </c>
@@ -1402,7 +1519,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
@@ -1419,19 +1536,31 @@
       <c r="H9">
         <v>10000</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A6DD8-159E-4CA1-9F66-78E630A698BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFEF1E-6459-46B0-8F5C-6FFFD10C887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Num</t>
   </si>
@@ -43,126 +43,159 @@
     <t>ProductionSec</t>
   </si>
   <si>
+    <t>int:pk</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>#id</t>
+  </si>
+  <si>
+    <t>#path</t>
+  </si>
+  <si>
+    <t>뚝딱 대장간</t>
+  </si>
+  <si>
+    <t>STRUCTURE</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>쿠키 하우스</t>
+  </si>
+  <si>
+    <t>설탕 노움의 집</t>
+  </si>
+  <si>
+    <t>나무</t>
+  </si>
+  <si>
+    <t>나무 조각</t>
+  </si>
+  <si>
+    <t>enum:EObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EKingdomItemType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:EKingdomItemSpecialType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductObjNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductObjAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructSec</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxCnt</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대소지개수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CostObjAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOLD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOTAL_CASH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecoPoint</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경점수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRASH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NONE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>MaxLv</t>
-  </si>
-  <si>
-    <t>int:pk</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>#id</t>
-  </si>
-  <si>
-    <t>#path</t>
-  </si>
-  <si>
-    <t>#설명</t>
-  </si>
-  <si>
-    <t>뚝딱 대장간</t>
-  </si>
-  <si>
-    <t>STRUCTURE</t>
-  </si>
-  <si>
-    <t>FORGE</t>
-  </si>
-  <si>
-    <t>NONE</t>
-  </si>
-  <si>
-    <t>쿠키 하우스</t>
-  </si>
-  <si>
-    <t>STAR_CANDY</t>
-  </si>
-  <si>
-    <t>설탕 노움의 집</t>
-  </si>
-  <si>
-    <t>DECORATION</t>
-  </si>
-  <si>
-    <t>나무</t>
-  </si>
-  <si>
-    <t>나무 조각</t>
-  </si>
-  <si>
-    <t>enum:EObjType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EKingdomItemType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum:EKingdomItemSpecialType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductObjType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductObjNum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProductObjAmount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConstructSec</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxCnt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대소지개수</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DECORATION</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostObjType</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostObjNum</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>CostObjAmount</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>GOLD</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOTAL_CASH</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>DecoPoint</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>환경점수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructObjType</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructObjNum</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConstructObjAmount</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#건설 재료</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#구매</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#생산품</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>#생산 시간</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CastleLv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECO</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1097,24 +1130,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519EE6C-6642-4ECA-95F8-8DE2EF3A4E40}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" customWidth="1"/>
-    <col min="15" max="16" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="11" max="13" width="16.21875" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" customWidth="1"/>
+    <col min="18" max="18" width="19.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1134,130 +1169,157 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>110001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1266,51 +1328,63 @@
         <v>3</v>
       </c>
       <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>19001</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>4000</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>110002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1319,51 +1393,63 @@
         <v>3</v>
       </c>
       <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5">
+        <v>19001</v>
+      </c>
+      <c r="M5">
         <v>5</v>
       </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>800</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>10</v>
       </c>
       <c r="Q5">
         <v>10</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5">
+        <v>11101</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>130001</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -1372,51 +1458,63 @@
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H6">
-        <v>10000</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>2000</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>180001</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1425,51 +1523,63 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H7">
-        <v>10000</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>14</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-      <c r="M7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
       <c r="Q7">
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>180002</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1478,51 +1588,63 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H8">
-        <v>10000</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
+      <c r="K8" t="s">
+        <v>14</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>190001</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1531,36 +1653,48 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="H9">
-        <v>10000</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>14</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="s">
+        <v>47</v>
+      </c>
+      <c r="S9">
+        <v>19001</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FFEF1E-6459-46B0-8F5C-6FFFD10C887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689B6EF-2442-41B5-A080-64053F148EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
   <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1228,10 +1228,10 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F689B6EF-2442-41B5-A080-64053F148EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEB6174-BD23-4110-87C0-4D9AB368518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8928" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
+    <workbookView xWindow="1980" yWindow="4185" windowWidth="21570" windowHeight="11295" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
   <si>
     <t>Num</t>
   </si>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>DECO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키 하우스 (테스트용)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1130,26 +1134,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519EE6C-6642-4ECA-95F8-8DE2EF3A4E40}">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" customWidth="1"/>
-    <col min="11" max="13" width="16.21875" customWidth="1"/>
-    <col min="14" max="15" width="12.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.5546875" customWidth="1"/>
-    <col min="18" max="18" width="19.44140625" customWidth="1"/>
-    <col min="19" max="19" width="14.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="15" width="12.28515625" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110001</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110002</v>
       </c>
@@ -1438,45 +1443,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>130001</v>
+        <v>110003</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>10000</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>19001</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
         <v>32</v>
@@ -1485,30 +1490,30 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>11101</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>180001</v>
+        <v>130001</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
         <v>48</v>
@@ -1544,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1565,12 +1570,12 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>180002</v>
+        <v>180001</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -1633,24 +1638,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>190001</v>
+        <v>180002</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
         <v>10000</v>
@@ -1686,15 +1691,80 @@
         <v>0</v>
       </c>
       <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>190001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>10000</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>47</v>
       </c>
-      <c r="S9">
+      <c r="S10">
         <v>19001</v>
       </c>
-      <c r="T9">
+      <c r="T10">
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="U10">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEB6174-BD23-4110-87C0-4D9AB368518D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F71468-B4B1-4F1C-ADBF-36190384CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="4185" windowWidth="21570" windowHeight="11295" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519EE6C-6642-4ECA-95F8-8DE2EF3A4E40}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F71468-B4B1-4F1C-ADBF-36190384CED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FE828-D9BE-4456-B76E-8230EAD583AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Num</t>
   </si>
@@ -200,6 +200,22 @@
   </si>
   <si>
     <t>쿠키 하우스 (테스트용)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItem/DummyDeco</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>KingdomItem/DummyDeco2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1134,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0519EE6C-6642-4ECA-95F8-8DE2EF3A4E40}">
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1145,16 +1161,17 @@
     <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="15" width="12.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="34.7109375" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="16" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1174,52 +1191,55 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>41</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>24</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1259,7 @@
         <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -1251,31 +1271,31 @@
         <v>26</v>
       </c>
       <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
       </c>
       <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
       <c r="P2" t="s">
         <v>26</v>
       </c>
       <c r="Q2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" t="s">
         <v>9</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>19</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
       </c>
       <c r="T2" t="s">
         <v>26</v>
@@ -1283,8 +1303,11 @@
       <c r="U2" t="s">
         <v>26</v>
       </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1294,26 +1317,26 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>45</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>110001</v>
       </c>
@@ -1332,53 +1355,56 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>10</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>19001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>32</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>4000</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
         <v>14</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>110002</v>
       </c>
@@ -1397,53 +1423,56 @@
       <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>10</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>60</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>47</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>19001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>33</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>800</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>10</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>47</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>11101</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>110003</v>
       </c>
@@ -1462,53 +1491,56 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>10</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>19001</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>32</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>500</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
         <v>47</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>11101</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>130001</v>
       </c>
@@ -1527,53 +1559,56 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7">
         <v>10000</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
         <v>14</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
         <v>0</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
         <v>32</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>2000</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
         <v>14</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>180001</v>
       </c>
@@ -1592,53 +1627,56 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8">
         <v>10000</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
       <c r="M8">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8" t="s">
         <v>14</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>14</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>180002</v>
       </c>
@@ -1657,53 +1695,56 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9">
         <v>10000</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
         <v>14</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>14</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>14</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>190001</v>
       </c>
@@ -1722,49 +1763,52 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10">
         <v>10000</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
         <v>14</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
       <c r="M10">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
         <v>14</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
         <v>47</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>19001</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0</v>
       </c>
     </row>

--- a/Data/Excel/Proto/KingdomItem.xlsx
+++ b/Data/Excel/Proto/KingdomItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWorks\GameServerStudyAspNet\Data\Excel\Proto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7FE828-D9BE-4456-B76E-8230EAD583AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54B1555-7311-4CAB-88D7-FCF6146878F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="20310" windowHeight="11295" xr2:uid="{9062E67C-FB91-4A6B-A4DB-AC6E92DB4724}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
